--- a/component-sourcing/OSCHSSP_electrical_BOM_sparkfun_v1.0.xlsx
+++ b/component-sourcing/OSCHSSP_electrical_BOM_sparkfun_v1.0.xlsx
@@ -5,27 +5,39 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\FAST Research Group\Heat Processes Projects\Mini Press 1000\open-source-cold-and-hot-scientific-sheet-press\component-sourcing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\FAST Research Group\Sheet Press\open-source-cold-and-hot-sheet-press\component-sourcing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2517DD0-E39F-4E49-A1B1-DCB0EDF820F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B00BB5-88A1-43FF-8C2A-478A321FC509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>SparkFun Beefcake Relay Control Kit (Ver. 2.0)</t>
   </si>
@@ -60,23 +72,113 @@
     <t>Reversible USB A to C Cable - 2m</t>
   </si>
   <si>
-    <t>LCD</t>
-  </si>
-  <si>
     <t>https://www.sparkfun.com/products/16396</t>
   </si>
   <si>
-    <t>power supply</t>
-  </si>
-  <si>
-    <t>rotary encoder</t>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Bill of materials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project name: </t>
+  </si>
+  <si>
+    <t>Part #</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Number of products to buy</t>
+  </si>
+  <si>
+    <t>Cost/Product</t>
+  </si>
+  <si>
+    <t>Total Cost</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Special instructions</t>
+  </si>
+  <si>
+    <t>Wall Adapter Power Supply - 9VDC, 650mA (Barrel Jack)</t>
+  </si>
+  <si>
+    <t>DC Barrel Jack Adapter - Female</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/10288</t>
+  </si>
+  <si>
+    <t>SparkFun Qwiic Mux Breakout - 8 Channel (TCA9548A)</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/16784</t>
+  </si>
+  <si>
+    <t>SparkFun Qwiic Shield for Arduino Nano</t>
+  </si>
+  <si>
+    <t>SparkFun Qwiic Quad Relay</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>alt</t>
+  </si>
+  <si>
+    <t>extra</t>
+  </si>
+  <si>
+    <t>KY-040 Rotary Encoder 5 pin 360 Degree Rotary Encoder Module</t>
+  </si>
+  <si>
+    <t>5pack</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/16789</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/JZK-Pieces-KY-040-Encoder-pushbutton/dp/B0C2CLW37J/ref=sr_1_4?crid=1BBYKQHM8RJY7&amp;keywords=ky040&amp;qid=1698119951&amp;sprefix=ky040%2Caps%2C126&amp;sr=8-4</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/16566</t>
+  </si>
+  <si>
+    <t>SparkFun 16x2 SerLCD - RGB Backlight (Qwiic)</t>
+  </si>
+  <si>
+    <t>Qwiic Cable - 100mm</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/14426</t>
+  </si>
+  <si>
+    <t>Qwiic Cable - 50mm</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/14427</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,6 +193,25 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -110,17 +231,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{8B0EFAC2-BEAB-4E30-A964-F782895CEE18}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -397,91 +523,562 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C09D3E6-DE34-4CA5-86C8-E9A335D46D3A}">
+  <dimension ref="A1:H40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11" style="3" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="11.5703125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="E3" s="3">
+        <f>C3*D3</f>
+        <v>19.899999999999999</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>18.5</v>
+      </c>
+      <c r="E4" s="3">
+        <f>C4*D4</f>
+        <v>37</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>18.5</v>
+      </c>
+      <c r="E5" s="3">
+        <f>C5*D5</f>
+        <v>18.5</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="E6" s="3">
+        <f>C6*D6</f>
+        <v>6.5</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="E7" s="3">
+        <f>C7*D7</f>
+        <v>3.5</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>16.5</v>
+      </c>
+      <c r="E8" s="3">
+        <f>C8*D8</f>
+        <v>16.5</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="E9" s="3">
+        <f>C9*D9</f>
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <v>21.95</v>
+      </c>
+      <c r="E10" s="3">
+        <f>C10*D10</f>
+        <v>21.95</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>4.95</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" ref="E11:E12" si="0">C11*D11</f>
+        <v>4.95</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>8.99</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="0"/>
+        <v>8.99</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>32.5</v>
+      </c>
+      <c r="E13" s="3">
+        <f>C11*D11</f>
+        <v>4.95</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="3">
+        <v>10</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" ref="E12:E27" si="1">C14*D14</f>
+        <v>15</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="3">
+        <v>10</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="1"/>
+        <v>9.5</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3">
+        <v>12.95</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" si="1"/>
+        <v>12.95</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="E20" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="E21" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="E22" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="E23" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+      <c r="E24" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>23</v>
+      </c>
+      <c r="E25" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>24</v>
+      </c>
+      <c r="E26" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>25</v>
+      </c>
+      <c r="E27" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="D32"/>
+      <c r="E32" s="1"/>
+      <c r="F32"/>
+    </row>
+    <row r="33" spans="4:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="D33"/>
+      <c r="E33" s="1"/>
+      <c r="F33"/>
+    </row>
+    <row r="34" spans="4:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="D34"/>
+      <c r="E34" s="1"/>
+      <c r="F34"/>
+    </row>
+    <row r="35" spans="4:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="D35"/>
+      <c r="E35" s="1"/>
+      <c r="F35"/>
+    </row>
+    <row r="36" spans="4:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="D36"/>
+      <c r="E36" s="1"/>
+      <c r="F36"/>
+    </row>
+    <row r="37" spans="4:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="D37"/>
+      <c r="E37" s="1"/>
+      <c r="F37"/>
+    </row>
+    <row r="38" spans="4:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="D38"/>
+      <c r="E38" s="1"/>
+      <c r="F38"/>
+    </row>
+    <row r="39" spans="4:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+    </row>
+    <row r="40" spans="4:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{A96F86EF-7D38-4E93-9DBB-E782847CDB56}"/>
+    <hyperlink ref="F4" r:id="rId2" xr:uid="{27FB70FE-2317-4187-8D3F-2BFA1E2EEEE4}"/>
+    <hyperlink ref="F5" r:id="rId3" xr:uid="{0E793D0C-BEE5-4634-828A-B4E4EBC87B56}"/>
+    <hyperlink ref="F6" r:id="rId4" xr:uid="{DD02EDC2-FB69-48D4-95AA-EB2333BAD7BF}"/>
+    <hyperlink ref="F8" r:id="rId5" xr:uid="{758FAE94-97CA-4F54-B65F-BF816162DB55}"/>
+    <hyperlink ref="F9" r:id="rId6" xr:uid="{61112BDE-0474-4E2A-9667-78EADCB9E24E}"/>
+    <hyperlink ref="F10" r:id="rId7" xr:uid="{E289FD4A-E38E-4FF1-B0B1-57B65013D85F}"/>
+    <hyperlink ref="F7" r:id="rId8" xr:uid="{5F385B7A-DF7F-4A04-9C8C-FF08E8E0ABD0}"/>
+    <hyperlink ref="F18" r:id="rId9" xr:uid="{31FAB844-E3B2-4097-AC64-890CA1A090B7}"/>
+    <hyperlink ref="F12" r:id="rId10" xr:uid="{1D8044A0-71C0-4832-BB35-2F79168F3376}"/>
+    <hyperlink ref="F13" r:id="rId11" xr:uid="{691F0EB6-D744-4EF6-9DB1-D9FC32416F0E}"/>
+    <hyperlink ref="F11" r:id="rId12" xr:uid="{ACC59D61-AE20-4E04-9A8D-345EB765AEFF}"/>
+    <hyperlink ref="F15" r:id="rId13" xr:uid="{1C4DFE4D-045E-44F1-ABA4-EC6CA8E4B222}"/>
+    <hyperlink ref="F14" r:id="rId14" xr:uid="{F1F055CA-7F5F-4BDD-8ED9-74280BB7833A}"/>
+  </hyperlinks>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:B10"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="33.140625" customWidth="1"/>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="C1" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{BA35B9A1-4636-4FD5-A319-886D052A389B}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{E3AE9DA9-8323-43B2-939C-899E97781ED6}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{5A23258D-F660-4627-AB96-1E692B3F7562}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{BD04C23B-2423-4A65-AE6B-B733251CE272}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{EC956859-140D-4D17-9771-D66EAD98EA02}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{060E78D2-0187-41E8-9C5E-0606B10AA67D}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{C95912D2-0EE9-4520-9EE3-613BED9E074F}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>